--- a/data/trans_orig/P14B12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B12-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB0C5B4D-F7E1-490D-8F29-B1670057A707}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBEDB04A-6F3D-490D-976E-FFE2B1235A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E3F62278-4273-4B19-B545-49BEB3B52F89}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93CDCEC7-F381-422E-B26C-AAF0BA8B2594}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="236">
   <si>
     <t>Población cuya angina de pecho le limita en 2012 (Tasa respuesta: 0,66%)</t>
   </si>
@@ -112,10 +112,10 @@
     <t>41,89%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -127,10 +127,10 @@
     <t>58,11%</t>
   </si>
   <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -139,10 +139,10 @@
     <t>69,41%</t>
   </si>
   <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
   </si>
   <si>
     <t>82,55%</t>
@@ -154,19 +154,19 @@
     <t>74,68%</t>
   </si>
   <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
   </si>
   <si>
     <t>30,59%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>72,32%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
   </si>
   <si>
     <t>17,45%</t>
@@ -178,10 +178,10 @@
     <t>25,32%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -196,6 +196,9 @@
     <t>83,8%</t>
   </si>
   <si>
+    <t>51,78%</t>
+  </si>
+  <si>
     <t>24,04%</t>
   </si>
   <si>
@@ -205,12 +208,18 @@
     <t>16,2%</t>
   </si>
   <si>
+    <t>48,22%</t>
+  </si>
+  <si>
     <t>Capitales</t>
   </si>
   <si>
     <t>74,49%</t>
   </si>
   <si>
+    <t>24,1%</t>
+  </si>
+  <si>
     <t>76,23%</t>
   </si>
   <si>
@@ -220,12 +229,15 @@
     <t>75,38%</t>
   </si>
   <si>
-    <t>37,65%</t>
+    <t>37,12%</t>
   </si>
   <si>
     <t>25,51%</t>
   </si>
   <si>
+    <t>75,9%</t>
+  </si>
+  <si>
     <t>23,77%</t>
   </si>
   <si>
@@ -235,16 +247,16 @@
     <t>24,62%</t>
   </si>
   <si>
-    <t>62,35%</t>
+    <t>62,88%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>56,44%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
+    <t>55,65%</t>
+  </si>
+  <si>
+    <t>91,71%</t>
   </si>
   <si>
     <t>65,68%</t>
@@ -259,16 +271,19 @@
     <t>71,38%</t>
   </si>
   <si>
-    <t>82,98%</t>
+    <t>57,03%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>43,56%</t>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>44,35%</t>
   </si>
   <si>
     <t>34,32%</t>
@@ -283,7 +298,10 @@
     <t>28,62%</t>
   </si>
   <si>
-    <t>17,02%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>42,97%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -322,7 +340,7 @@
     <t>71,54%</t>
   </si>
   <si>
-    <t>34,28%</t>
+    <t>36,45%</t>
   </si>
   <si>
     <t>91,91%</t>
@@ -334,10 +352,10 @@
     <t>71,48%</t>
   </si>
   <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
   </si>
   <si>
     <t>28,46%</t>
@@ -346,7 +364,7 @@
     <t>8,09%</t>
   </si>
   <si>
-    <t>65,72%</t>
+    <t>63,55%</t>
   </si>
   <si>
     <t>28,67%</t>
@@ -355,40 +373,40 @@
     <t>28,52%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>46,77%</t>
+    <t>40,76%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>64,49%</t>
+    <t>61,15%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>53,23%</t>
+    <t>59,24%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>35,51%</t>
+    <t>38,85%</t>
   </si>
   <si>
     <t>77,05%</t>
   </si>
   <si>
-    <t>17,11%</t>
+    <t>18,7%</t>
   </si>
   <si>
     <t>70,65%</t>
@@ -400,16 +418,16 @@
     <t>73,05%</t>
   </si>
   <si>
-    <t>38,62%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
-    <t>82,89%</t>
+    <t>81,3%</t>
   </si>
   <si>
     <t>29,35%</t>
@@ -421,19 +439,19 @@
     <t>26,95%</t>
   </si>
   <si>
-    <t>8,58%</t>
-  </si>
-  <si>
-    <t>61,38%</t>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
   </si>
   <si>
     <t>81,18%</t>
   </si>
   <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>77,92%</t>
@@ -448,19 +466,19 @@
     <t>79,8%</t>
   </si>
   <si>
-    <t>64,62%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>37,04%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
   </si>
   <si>
     <t>22,08%</t>
@@ -475,10 +493,10 @@
     <t>20,2%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>35,38%</t>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>34,43%</t>
   </si>
   <si>
     <t>Población cuya angina de pecho le limita en 2023 (Tasa respuesta: 0,9%)</t>
@@ -493,19 +511,19 @@
     <t>67,03%</t>
   </si>
   <si>
-    <t>33,17%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
+    <t>26,79%</t>
+  </si>
+  <si>
+    <t>91,44%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
   </si>
   <si>
     <t>43,24%</t>
@@ -517,28 +535,28 @@
     <t>32,97%</t>
   </si>
   <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>66,83%</t>
+    <t>8,56%</t>
+  </si>
+  <si>
+    <t>73,21%</t>
   </si>
   <si>
     <t>37,32%</t>
   </si>
   <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
   </si>
   <si>
     <t>64,12%</t>
   </si>
   <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
   </si>
   <si>
     <t>79,73%</t>
@@ -550,19 +568,19 @@
     <t>69,6%</t>
   </si>
   <si>
-    <t>41,67%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
+    <t>40,52%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
   </si>
   <si>
     <t>35,88%</t>
   </si>
   <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
   </si>
   <si>
     <t>20,27%</t>
@@ -574,19 +592,19 @@
     <t>30,4%</t>
   </si>
   <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>58,33%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>59,48%</t>
   </si>
   <si>
     <t>58,66%</t>
   </si>
   <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
   </si>
   <si>
     <t>7,61%</t>
@@ -595,139 +613,139 @@
     <t>62,86%</t>
   </si>
   <si>
-    <t>34,17%</t>
+    <t>34,9%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>65,1%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>68,42%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>59,73%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>31,58%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>40,27%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>53,36%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>56,41%</t>
   </si>
   <si>
     <t>86,1%</t>
   </si>
   <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>58,84%</t>
+  </si>
+  <si>
+    <t>80,03%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>46,64%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
   </si>
   <si>
     <t>13,9%</t>
   </si>
   <si>
-    <t>65,83%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>57,87%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>68,42%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>42,13%</t>
-  </si>
-  <si>
-    <t>31,58%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>83,15%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>53,05%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>58,53%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>46,95%</t>
+    <t>43,59%</t>
   </si>
   <si>
     <t>29,47%</t>
   </si>
   <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>41,47%</t>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
   </si>
 </sst>
 </file>
@@ -1139,7 +1157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{092C8DE3-A4F2-4AD8-9B65-432F8158249D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9E5D88-A29C-46E8-89E0-955B2F2135BC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1761,7 +1779,7 @@
         <v>51</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -1794,13 +1812,13 @@
         <v>2040</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -1809,13 +1827,13 @@
         <v>2040</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1871,7 +1889,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1883,10 +1901,10 @@
         <v>3021</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -1898,10 +1916,10 @@
         <v>3221</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -1913,10 +1931,10 @@
         <v>6244</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>14</v>
@@ -1934,13 +1952,13 @@
         <v>1035</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="H17" s="7">
         <v>1</v>
@@ -1949,13 +1967,13 @@
         <v>1005</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="M17" s="7">
         <v>2</v>
@@ -1964,13 +1982,13 @@
         <v>2039</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2038,13 +2056,13 @@
         <v>17060</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="H19" s="7">
         <v>15</v>
@@ -2053,13 +2071,13 @@
         <v>16273</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -2068,13 +2086,13 @@
         <v>33334</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2089,13 +2107,13 @@
         <v>4857</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -2104,13 +2122,13 @@
         <v>8505</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M20" s="7">
         <v>13</v>
@@ -2119,13 +2137,13 @@
         <v>13362</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2181,7 +2199,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2202,7 +2220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51C486F-971E-4EBC-A83B-6D8012FB4182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC19F25-9717-4F92-B7C7-2BAA0F2C5A3E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2219,7 +2237,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2329,7 +2347,7 @@
         <v>14</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -2339,13 +2357,13 @@
       </c>
       <c r="I4" s="7"/>
       <c r="J4" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -2357,7 +2375,7 @@
         <v>14</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -2381,20 +2399,20 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
       </c>
       <c r="I5" s="7"/>
       <c r="J5" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -2409,7 +2427,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2437,13 +2455,13 @@
       </c>
       <c r="I6" s="7"/>
       <c r="J6" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M6" s="7">
         <v>2</v>
@@ -2478,7 +2496,7 @@
         <v>14</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>16</v>
@@ -2490,7 +2508,7 @@
         <v>2410</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>11</v>
@@ -2505,10 +2523,10 @@
         <v>4269</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>14</v>
@@ -2532,7 +2550,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="H8" s="7">
         <v>1</v>
@@ -2541,7 +2559,7 @@
         <v>1028</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>11</v>
@@ -2556,13 +2574,13 @@
         <v>1028</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2630,13 +2648,13 @@
         <v>7152</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="H10" s="7">
         <v>2</v>
@@ -2645,7 +2663,7 @@
         <v>2533</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>11</v>
@@ -2660,13 +2678,13 @@
         <v>9685</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2681,13 +2699,13 @@
         <v>2845</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -2696,7 +2714,7 @@
         <v>1018</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
@@ -2711,13 +2729,13 @@
         <v>3864</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2785,10 +2803,10 @@
         <v>6855</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>14</v>
@@ -2815,10 +2833,10 @@
         <v>11587</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>14</v>
@@ -2836,13 +2854,13 @@
         <v>1050</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -2866,13 +2884,13 @@
         <v>1050</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,7 +2946,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2940,10 +2958,10 @@
         <v>3444</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>14</v>
@@ -2955,10 +2973,10 @@
         <v>5271</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>14</v>
@@ -2970,13 +2988,13 @@
         <v>8716</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2991,13 +3009,13 @@
         <v>1025</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3006,13 +3024,13 @@
         <v>2190</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -3021,13 +3039,13 @@
         <v>3215</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3113,13 @@
         <v>21232</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
         <v>13</v>
@@ -3110,13 +3128,13 @@
         <v>14947</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
         <v>34</v>
@@ -3125,13 +3143,13 @@
         <v>36181</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,13 +3164,13 @@
         <v>4922</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -3161,13 +3179,13 @@
         <v>4236</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="M20" s="7">
         <v>9</v>
@@ -3176,13 +3194,13 @@
         <v>9157</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3238,7 +3256,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -3259,7 +3277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C5D73BD-BED2-4752-8676-CBB54B4099BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1A4915-6EDD-4A8B-BC3C-D2AA8EEF32DA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3276,7 +3294,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3401,7 +3419,7 @@
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>16</v>
@@ -3455,7 +3473,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3538,10 +3556,10 @@
         <v>2038</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>14</v>
@@ -3553,13 +3571,13 @@
         <v>3270</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -3568,13 +3586,13 @@
         <v>5308</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3607,13 @@
         <v>1553</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -3604,13 +3622,13 @@
         <v>1608</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -3619,13 +3637,13 @@
         <v>3161</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3711,13 @@
         <v>4171</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -3708,10 +3726,10 @@
         <v>2806</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>14</v>
@@ -3723,13 +3741,13 @@
         <v>6977</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3762,13 @@
         <v>2334</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="H11" s="7">
         <v>1</v>
@@ -3759,13 +3777,13 @@
         <v>713</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="M11" s="7">
         <v>4</v>
@@ -3774,13 +3792,13 @@
         <v>3047</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3848,13 +3866,13 @@
         <v>5390</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3863,10 +3881,10 @@
         <v>2096</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>14</v>
@@ -3878,13 +3896,13 @@
         <v>7487</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3899,13 +3917,13 @@
         <v>3799</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H14" s="7">
         <v>1</v>
@@ -3914,13 +3932,13 @@
         <v>625</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -3929,13 +3947,13 @@
         <v>4423</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,7 +4009,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4003,13 +4021,13 @@
         <v>9789</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H16" s="7">
         <v>10</v>
@@ -4018,13 +4036,13 @@
         <v>5360</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M16" s="7">
         <v>24</v>
@@ -4033,13 +4051,13 @@
         <v>15149</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4054,13 +4072,13 @@
         <v>2035</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -4069,13 +4087,13 @@
         <v>2474</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="M17" s="7">
         <v>7</v>
@@ -4084,13 +4102,13 @@
         <v>4509</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4158,13 +4176,13 @@
         <v>22122</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H19" s="7">
         <v>27</v>
@@ -4173,13 +4191,13 @@
         <v>14121</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="M19" s="7">
         <v>58</v>
@@ -4188,13 +4206,13 @@
         <v>36243</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4209,13 +4227,13 @@
         <v>9721</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -4224,13 +4242,13 @@
         <v>5420</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M20" s="7">
         <v>21</v>
@@ -4239,13 +4257,13 @@
         <v>15141</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4301,7 +4319,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14B12-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P14B12-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBEDB04A-6F3D-490D-976E-FFE2B1235A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{814E4997-BA48-415B-BCFD-C50657BFA5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{93CDCEC7-F381-422E-B26C-AAF0BA8B2594}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{27BE3109-721A-49E1-B0CB-DCE13B627B6E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -100,7 +100,7 @@
     <t>41,01%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>55,59%</t>
@@ -112,10 +112,10 @@
     <t>41,89%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>83,95%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -127,88 +127,88 @@
     <t>58,11%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>87,74%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>69,41%</t>
   </si>
   <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
   </si>
   <si>
     <t>82,55%</t>
   </si>
   <si>
-    <t>31,13%</t>
+    <t>30,98%</t>
   </si>
   <si>
     <t>74,68%</t>
   </si>
   <si>
-    <t>50,07%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>48,41%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
   </si>
   <si>
     <t>30,59%</t>
   </si>
   <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>72,68%</t>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>72,21%</t>
   </si>
   <si>
     <t>17,45%</t>
   </si>
   <si>
-    <t>68,87%</t>
+    <t>69,02%</t>
   </si>
   <si>
     <t>25,32%</t>
   </si>
   <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>49,93%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>75,96%</t>
   </si>
   <si>
-    <t>37,24%</t>
+    <t>37,13%</t>
   </si>
   <si>
     <t>83,8%</t>
   </si>
   <si>
-    <t>51,78%</t>
+    <t>58,1%</t>
   </si>
   <si>
     <t>24,04%</t>
   </si>
   <si>
-    <t>62,76%</t>
+    <t>62,87%</t>
   </si>
   <si>
     <t>16,2%</t>
   </si>
   <si>
-    <t>48,22%</t>
+    <t>41,9%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -229,7 +229,7 @@
     <t>75,38%</t>
   </si>
   <si>
-    <t>37,12%</t>
+    <t>37,21%</t>
   </si>
   <si>
     <t>25,51%</t>
@@ -247,67 +247,67 @@
     <t>24,62%</t>
   </si>
   <si>
-    <t>62,88%</t>
+    <t>62,79%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>55,65%</t>
-  </si>
-  <si>
-    <t>91,71%</t>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
   </si>
   <si>
     <t>65,68%</t>
   </si>
   <si>
-    <t>43,69%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
+    <t>44,13%</t>
+  </si>
+  <si>
+    <t>82,92%</t>
   </si>
   <si>
     <t>71,38%</t>
   </si>
   <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>44,35%</t>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
   </si>
   <si>
     <t>34,32%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>56,31%</t>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
   </si>
   <si>
     <t>28,62%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>42,97%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población cuya angina de pecho le limita en 2015 (Tasa respuesta: 0,65%)</t>
+    <t>Población cuya angina de pecho le limita en 2016 (Tasa respuesta: 0,65%)</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -325,7 +325,7 @@
     <t>80,6%</t>
   </si>
   <si>
-    <t>20,39%</t>
+    <t>20,53%</t>
   </si>
   <si>
     <t>29,89%</t>
@@ -334,16 +334,16 @@
     <t>19,4%</t>
   </si>
   <si>
-    <t>79,61%</t>
+    <t>79,47%</t>
   </si>
   <si>
     <t>71,54%</t>
   </si>
   <si>
-    <t>36,45%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
   </si>
   <si>
     <t>71,33%</t>
@@ -352,19 +352,19 @@
     <t>71,48%</t>
   </si>
   <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>28,46%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>63,55%</t>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
   </si>
   <si>
     <t>28,67%</t>
@@ -373,130 +373,130 @@
     <t>28,52%</t>
   </si>
   <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
   </si>
   <si>
     <t>86,71%</t>
   </si>
   <si>
-    <t>40,76%</t>
+    <t>40,63%</t>
   </si>
   <si>
     <t>91,69%</t>
   </si>
   <si>
-    <t>61,15%</t>
+    <t>63,92%</t>
   </si>
   <si>
     <t>13,29%</t>
   </si>
   <si>
-    <t>59,24%</t>
+    <t>59,37%</t>
   </si>
   <si>
     <t>8,31%</t>
   </si>
   <si>
-    <t>38,85%</t>
+    <t>36,08%</t>
   </si>
   <si>
     <t>77,05%</t>
   </si>
   <si>
-    <t>18,7%</t>
+    <t>15,21%</t>
   </si>
   <si>
     <t>70,65%</t>
   </si>
   <si>
-    <t>27,26%</t>
+    <t>26,08%</t>
   </si>
   <si>
     <t>73,05%</t>
   </si>
   <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
   </si>
   <si>
     <t>22,95%</t>
   </si>
   <si>
-    <t>81,3%</t>
+    <t>84,79%</t>
   </si>
   <si>
     <t>29,35%</t>
   </si>
   <si>
-    <t>72,74%</t>
+    <t>73,92%</t>
   </si>
   <si>
     <t>26,95%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>60,49%</t>
   </si>
   <si>
     <t>81,18%</t>
   </si>
   <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
   </si>
   <si>
     <t>77,92%</t>
   </si>
   <si>
-    <t>53,93%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
+    <t>54,27%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
   </si>
   <si>
     <t>79,8%</t>
   </si>
   <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
   </si>
   <si>
     <t>18,82%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
   </si>
   <si>
     <t>22,08%</t>
   </si>
   <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>46,07%</t>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
   </si>
   <si>
     <t>20,2%</t>
   </si>
   <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
   </si>
   <si>
     <t>Población cuya angina de pecho le limita en 2023 (Tasa respuesta: 0,9%)</t>
@@ -1157,7 +1157,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E9E5D88-A29C-46E8-89E0-955B2F2135BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0ABDE78-2A47-4918-9DDB-10B945491685}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2220,7 +2220,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC19F25-9717-4F92-B7C7-2BAA0F2C5A3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17B12F45-0E13-4547-A758-F4D7AAAB4F32}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3277,7 +3277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D1A4915-6EDD-4A8B-BC3C-D2AA8EEF32DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C971258D-0634-483B-9B67-3B026A76A7D3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
